--- a/apps/load_data/2014/05/PLMOVMAE.xlsx
+++ b/apps/load_data/2014/05/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2014\HHY0514\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HHY ACTUALIZADOS\2014\HHY0514\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C901C90-DA0F-4DBD-ABAF-4FE9A0FA6AAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7755DFFD-81A9-48CA-870F-AEA3300423E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$236</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$233</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -8249,7 +8250,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -8257,6 +8258,7 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8614,8 +8616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="A234" sqref="A234:XFD236"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49743,13 +49745,13 @@
       <c r="P234" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="Q234" s="5">
+      <c r="Q234" s="7">
         <v>20367</v>
       </c>
       <c r="R234" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S234" s="5">
+      <c r="S234" s="7">
         <v>29556</v>
       </c>
       <c r="T234" s="4" t="s">
@@ -49941,13 +49943,13 @@
       <c r="P235" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="Q235" s="5">
+      <c r="Q235" s="7">
         <v>29429</v>
       </c>
       <c r="R235" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S235" s="5">
+      <c r="S235" s="7">
         <v>41051</v>
       </c>
       <c r="T235" s="4" t="s">
@@ -50137,13 +50139,13 @@
       <c r="P236" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="Q236" s="5">
+      <c r="Q236" s="7">
         <v>29037</v>
       </c>
       <c r="R236" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S236" s="5">
+      <c r="S236" s="7">
         <v>41470</v>
       </c>
       <c r="T236" s="4" t="s">
@@ -50285,6 +50287,7 @@
       <c r="CF236" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF236" xr:uid="{26F90A67-0E20-40BC-9DA8-F877201F104C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>